--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjain33\Documents\R Environment\chicago-ssa-outcomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{796406BF-0631-4D8F-BC82-291E41779AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D84405-7B94-40B5-AC12-D5BE397581DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FAEA7FCA-831B-4382-B593-6F46F628EBBF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18660" windowHeight="15585" xr2:uid="{FAEA7FCA-831B-4382-B593-6F46F628EBBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature Review" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>Variable</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Average Daily Traffic</t>
   </si>
   <si>
-    <t>CDOT/IDOT</t>
-  </si>
-  <si>
     <t>Road segments</t>
   </si>
   <si>
@@ -193,6 +190,96 @@
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>The Business Improvement District Model: A Balanced Review of Contemporary Debates</t>
+  </si>
+  <si>
+    <t>Hoyt, Gopal-Agge</t>
+  </si>
+  <si>
+    <t>Geography Compass</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1749-8198.2007.00041.x</t>
+  </si>
+  <si>
+    <t>The effects of business improvement districts in reducing nuisance crimes: Evidence from Philadelphia</t>
+  </si>
+  <si>
+    <t>Han et al</t>
+  </si>
+  <si>
+    <t>Journal of Urban Affairs</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/07352166.2016.1262691</t>
+  </si>
+  <si>
+    <t>Business improvement districts (BIDs): An economic development policy or a tool for gentrification</t>
+  </si>
+  <si>
+    <t>Elmedni et al</t>
+  </si>
+  <si>
+    <t>Cogent Business &amp; Management</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/23311975.2018.1502241</t>
+  </si>
+  <si>
+    <t>https://gis-idot.opendata.arcgis.com/search?q=Annual%20Average%20Daily%20Traffic&amp;tags=AADT</t>
+  </si>
+  <si>
+    <t>https://www.costar.com/</t>
+  </si>
+  <si>
+    <t>https://lehd.ces.census.gov/</t>
+  </si>
+  <si>
+    <t>https://data.cityofchicago.org/Public-Safety/Crimes-2001-to-Present/ijzp-q8t2/about_data</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2001 to 2021</t>
+  </si>
+  <si>
+    <t>Can draw custom boundaries for KPIs (vacancy sums)</t>
+  </si>
+  <si>
+    <t>2001 onwards, geolocation slightly shifted to prevent identification; remains on the same block</t>
+  </si>
+  <si>
+    <t>Individual files for each year. 2012 to 2023</t>
+  </si>
+  <si>
+    <t>https://data.cityofchicago.org/Transportation/Parking-Permit-Zones/u9xt-hiju/about_data</t>
+  </si>
+  <si>
+    <t>Couldn't find historical</t>
+  </si>
+  <si>
+    <t>SSA Shape</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Explanatory</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Year. Fixed effect</t>
+  </si>
+  <si>
+    <t>Observation of each SSA. Fixed effect?</t>
   </si>
 </sst>
 </file>
@@ -245,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,6 +356,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730D402-4359-448A-8EDD-498095D6194E}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -679,6 +768,66 @@
       </c>
       <c r="F3" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73553298-1984-47D2-A5B2-E47F69EF8F93}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,14 +854,16 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -726,8 +877,14 @@
       <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -735,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -746,8 +903,14 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -755,19 +918,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -775,19 +938,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -795,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -806,8 +969,14 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -815,7 +984,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -826,8 +995,14 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -835,19 +1010,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -855,139 +1030,206 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{785C2DF2-2B16-4588-9037-64AA9459D1E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>